--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.578162715035433</v>
+        <v>2.558139091228547</v>
       </c>
       <c r="C2">
-        <v>1.817939111162123</v>
+        <v>1.807629892617897</v>
       </c>
       <c r="D2">
-        <v>1.556329844241898</v>
+        <v>1.550484622924876</v>
       </c>
       <c r="E2">
-        <v>1.421414618967719</v>
+        <v>1.414055654904187</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.591142593621775</v>
+        <v>2.571058240846794</v>
       </c>
       <c r="C3">
-        <v>1.826737167141431</v>
+        <v>1.817304492547184</v>
       </c>
       <c r="D3">
-        <v>1.563925944613592</v>
+        <v>1.55689358682896</v>
       </c>
       <c r="E3">
-        <v>1.425130117157034</v>
+        <v>1.418476688626426</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.541122958614084</v>
+        <v>2.524033221911411</v>
       </c>
       <c r="C4">
-        <v>1.791932319049202</v>
+        <v>1.782010133492829</v>
       </c>
       <c r="D4">
-        <v>1.533507641919833</v>
+        <v>1.527468092681718</v>
       </c>
       <c r="E4">
-        <v>1.400028252037379</v>
+        <v>1.393836101180278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.583364599797534</v>
+        <v>2.564825141152768</v>
       </c>
       <c r="C5">
-        <v>1.823369868681284</v>
+        <v>1.812988199412726</v>
       </c>
       <c r="D5">
-        <v>1.543787673271103</v>
+        <v>1.537805340834631</v>
       </c>
       <c r="E5">
-        <v>1.420641873004389</v>
+        <v>1.414522073045725</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.593164756629139</v>
+        <v>2.574585052914157</v>
       </c>
       <c r="C6">
-        <v>1.830665131808651</v>
+        <v>1.819960065524298</v>
       </c>
       <c r="D6">
-        <v>1.550575926917416</v>
+        <v>1.543419494542331</v>
       </c>
       <c r="E6">
-        <v>1.425541587008025</v>
+        <v>1.419532925750195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.568060346406003</v>
+        <v>2.549393159961533</v>
       </c>
       <c r="C7">
-        <v>1.809940747607632</v>
+        <v>1.800608292030371</v>
       </c>
       <c r="D7">
-        <v>1.548739127703406</v>
+        <v>1.54268538216686</v>
       </c>
       <c r="E7">
-        <v>1.41140777617231</v>
+        <v>1.404978498878209</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.580845386146394</v>
+        <v>2.562226646976647</v>
       </c>
       <c r="C8">
-        <v>1.821814536937141</v>
+        <v>1.811121680113447</v>
       </c>
       <c r="D8">
-        <v>1.572590205418946</v>
+        <v>1.565222802774</v>
       </c>
       <c r="E8">
-        <v>1.415349411907194</v>
+        <v>1.409312192220709</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.587198822740189</v>
+        <v>2.569237339612119</v>
       </c>
       <c r="C9">
-        <v>1.826466672916639</v>
+        <v>1.816956055849428</v>
       </c>
       <c r="D9">
-        <v>1.564071944525381</v>
+        <v>1.557877905496985</v>
       </c>
       <c r="E9">
-        <v>1.425297645130048</v>
+        <v>1.419164020447879</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2759905999112</v>
+        <v>2.259907216303427</v>
       </c>
       <c r="C10">
-        <v>1.593817604667426</v>
+        <v>1.584180934600336</v>
       </c>
       <c r="D10">
-        <v>1.384366150461767</v>
+        <v>1.375272804597484</v>
       </c>
       <c r="E10">
-        <v>1.278853357060356</v>
+        <v>1.27224744976302</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.209429365814242</v>
+        <v>2.194203204459443</v>
       </c>
       <c r="C11">
-        <v>1.543089010683374</v>
+        <v>1.532756793977353</v>
       </c>
       <c r="D11">
-        <v>1.334410205388587</v>
+        <v>1.329380741006684</v>
       </c>
       <c r="E11">
-        <v>1.239952669226405</v>
+        <v>1.232365762670961</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.879694048360705</v>
+        <v>1.865783552065658</v>
       </c>
       <c r="C12">
-        <v>1.287674515610658</v>
+        <v>1.280968368999795</v>
       </c>
       <c r="D12">
-        <v>1.088919335240199</v>
+        <v>1.082554188446728</v>
       </c>
       <c r="E12">
-        <v>1.006376392834603</v>
+        <v>0.9993215601058449</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.254469502846911</v>
+        <v>2.237924815214063</v>
       </c>
       <c r="C13">
-        <v>1.573566933273717</v>
+        <v>1.565073904619898</v>
       </c>
       <c r="D13">
-        <v>1.359602874049817</v>
+        <v>1.350229857885922</v>
       </c>
       <c r="E13">
-        <v>1.256656708171647</v>
+        <v>1.24896039519903</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.558139091228547</v>
+        <v>2.558139091228548</v>
       </c>
       <c r="C2">
-        <v>1.807629892617897</v>
+        <v>1.807629892617899</v>
       </c>
       <c r="D2">
-        <v>1.550484622924876</v>
+        <v>1.550484622924875</v>
       </c>
       <c r="E2">
-        <v>1.414055654904187</v>
+        <v>1.414055654904186</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,13 +408,13 @@
         <v>2.571058240846794</v>
       </c>
       <c r="C3">
-        <v>1.817304492547184</v>
+        <v>1.817304492547183</v>
       </c>
       <c r="D3">
-        <v>1.55689358682896</v>
+        <v>1.556893586828959</v>
       </c>
       <c r="E3">
-        <v>1.418476688626426</v>
+        <v>1.418476688626427</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.524033221911411</v>
+        <v>2.52403322191141</v>
       </c>
       <c r="C4">
-        <v>1.782010133492829</v>
+        <v>1.782010133492831</v>
       </c>
       <c r="D4">
-        <v>1.527468092681718</v>
+        <v>1.527468092681717</v>
       </c>
       <c r="E4">
-        <v>1.393836101180278</v>
+        <v>1.393836101180277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.564825141152768</v>
+        <v>2.56482514115277</v>
       </c>
       <c r="C5">
         <v>1.812988199412726</v>
       </c>
       <c r="D5">
-        <v>1.537805340834631</v>
+        <v>1.537805340834629</v>
       </c>
       <c r="E5">
         <v>1.414522073045725</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.574585052914157</v>
+        <v>2.574585052914159</v>
       </c>
       <c r="C6">
-        <v>1.819960065524298</v>
+        <v>1.819960065524299</v>
       </c>
       <c r="D6">
-        <v>1.543419494542331</v>
+        <v>1.543419494542329</v>
       </c>
       <c r="E6">
         <v>1.419532925750195</v>
@@ -479,10 +479,10 @@
         <v>1.800608292030371</v>
       </c>
       <c r="D7">
-        <v>1.54268538216686</v>
+        <v>1.542685382166858</v>
       </c>
       <c r="E7">
-        <v>1.404978498878209</v>
+        <v>1.404978498878208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.562226646976647</v>
+        <v>2.562226646976645</v>
       </c>
       <c r="C8">
         <v>1.811121680113447</v>
       </c>
       <c r="D8">
-        <v>1.565222802774</v>
+        <v>1.565222802773999</v>
       </c>
       <c r="E8">
         <v>1.409312192220709</v>
@@ -510,10 +510,10 @@
         <v>2.569237339612119</v>
       </c>
       <c r="C9">
-        <v>1.816956055849428</v>
+        <v>1.816956055849429</v>
       </c>
       <c r="D9">
-        <v>1.557877905496985</v>
+        <v>1.557877905496986</v>
       </c>
       <c r="E9">
         <v>1.419164020447879</v>
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.259907216303427</v>
+        <v>2.25990721630343</v>
       </c>
       <c r="C10">
-        <v>1.584180934600336</v>
+        <v>1.584180934600335</v>
       </c>
       <c r="D10">
         <v>1.375272804597484</v>
       </c>
       <c r="E10">
-        <v>1.27224744976302</v>
+        <v>1.272247449763021</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.194203204459443</v>
+        <v>2.194203204459444</v>
       </c>
       <c r="C11">
         <v>1.532756793977353</v>
@@ -550,7 +550,7 @@
         <v>1.329380741006684</v>
       </c>
       <c r="E11">
-        <v>1.232365762670961</v>
+        <v>1.23236576267096</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -561,13 +561,13 @@
         <v>1.865783552065658</v>
       </c>
       <c r="C12">
-        <v>1.280968368999795</v>
+        <v>1.280968368999796</v>
       </c>
       <c r="D12">
         <v>1.082554188446728</v>
       </c>
       <c r="E12">
-        <v>0.9993215601058449</v>
+        <v>0.9993215601058448</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -581,7 +581,7 @@
         <v>1.565073904619898</v>
       </c>
       <c r="D13">
-        <v>1.350229857885922</v>
+        <v>1.350229857885921</v>
       </c>
       <c r="E13">
         <v>1.24896039519903</v>
